--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$I$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$I$124</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$G$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,40 +31,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Monalisa</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Monalisa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-irá manter ou não?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Monalisa</author>
@@ -99,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="375">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -125,12 +91,6 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">Collection x Collection </t>
-  </si>
-  <si>
-    <t>Organização x Organização</t>
-  </si>
-  <si>
     <t>ID (FONTE)</t>
   </si>
   <si>
@@ -162,6 +122,1074 @@
   </si>
   <si>
     <t>SOURCE (ALVO)</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana antitétano</t>
+  </si>
+  <si>
+    <t>Soro antitetânico</t>
+  </si>
+  <si>
+    <t>Soro antiaracnídico</t>
+  </si>
+  <si>
+    <t>Soro antiescorpiônico</t>
+  </si>
+  <si>
+    <t>Vacina difteria e tétano infantil</t>
+  </si>
+  <si>
+    <t>Soro antielapídico</t>
+  </si>
+  <si>
+    <t>Soro antirrábico</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente)</t>
+  </si>
+  <si>
+    <t>Vacina hepatite B</t>
+  </si>
+  <si>
+    <t>Soro antidiftérico</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente) e anticrotálico</t>
+  </si>
+  <si>
+    <t>Soro antibotrópico (pentavalente) e antilaquético</t>
+  </si>
+  <si>
+    <t>Vacina meningocócica AC</t>
+  </si>
+  <si>
+    <t>Vacina febre amarela</t>
+  </si>
+  <si>
+    <t>Vacina BCG</t>
+  </si>
+  <si>
+    <t>Soro anticrotálico</t>
+  </si>
+  <si>
+    <t>Vacina Hib</t>
+  </si>
+  <si>
+    <t>Vacina raiva embrião de galinha</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana antivaricela</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana anti-hepatite B</t>
+  </si>
+  <si>
+    <t>Vacina pneumo 23</t>
+  </si>
+  <si>
+    <t>Vacina polio injetável</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana antirrábica</t>
+  </si>
+  <si>
+    <t>Vacina sarampo, caxumba, rubéola</t>
+  </si>
+  <si>
+    <t>Vacina difteria e tétano adulto</t>
+  </si>
+  <si>
+    <t>Vacina pneumo 10</t>
+  </si>
+  <si>
+    <t>Soro latrodectus</t>
+  </si>
+  <si>
+    <t>Vacina polio oral</t>
+  </si>
+  <si>
+    <t>Vacina penta acelular (DTPa/VIP/Hib)</t>
+  </si>
+  <si>
+    <t>Vacina febre tifóide</t>
+  </si>
+  <si>
+    <t>Soro antiloxoscélico (trivalente)</t>
+  </si>
+  <si>
+    <t>Soro antilonômico</t>
+  </si>
+  <si>
+    <t>Vacina influenza trivalente</t>
+  </si>
+  <si>
+    <t>Vacina varicela</t>
+  </si>
+  <si>
+    <t>Vacina hepatite A</t>
+  </si>
+  <si>
+    <t>Vacina sarampo, rubéola</t>
+  </si>
+  <si>
+    <t>Vacina raiva em cultivo celular vero</t>
+  </si>
+  <si>
+    <t>Soro antibotulínico (trivalente)</t>
+  </si>
+  <si>
+    <t>Vacina DTP/Hib</t>
+  </si>
+  <si>
+    <t>Vacina pneumocócica 7V</t>
+  </si>
+  <si>
+    <t>Vacina meningo C</t>
+  </si>
+  <si>
+    <t>Vacina penta (DTP/HepB/Hib)</t>
+  </si>
+  <si>
+    <t>Vacina hexa (DTPa/HepB/VIP/Hib)</t>
+  </si>
+  <si>
+    <t>Vacina Influenza H1N1</t>
+  </si>
+  <si>
+    <t>Vacina rotavírus</t>
+  </si>
+  <si>
+    <t>Vacina DTP</t>
+  </si>
+  <si>
+    <t>Vacina DTPa infantil</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, caxumba, rubéola</t>
+  </si>
+  <si>
+    <t>Diluente para vacina febre amarela</t>
+  </si>
+  <si>
+    <t>Diluente para vacina haemophilus influenzae B</t>
+  </si>
+  <si>
+    <t>Vacina febre tifóide (atenuada)</t>
+  </si>
+  <si>
+    <t>Diluente meningo AC</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, rubéola</t>
+  </si>
+  <si>
+    <t>Diluente para vacina varicela</t>
+  </si>
+  <si>
+    <t>Vacina hepatite A infantil</t>
+  </si>
+  <si>
+    <t>Vacina sarampo, caxumba, rubéola e varicela</t>
+  </si>
+  <si>
+    <t>Vacina dTpa adulto</t>
+  </si>
+  <si>
+    <t>Vacina DTPa/VIP</t>
+  </si>
+  <si>
+    <t>Vacina pneumo 13</t>
+  </si>
+  <si>
+    <t>Vacina HPV bivalente</t>
+  </si>
+  <si>
+    <t>Vacina toxóide tetânico</t>
+  </si>
+  <si>
+    <t>Hepatite AeB (pediátrica)</t>
+  </si>
+  <si>
+    <t>Vacina hepatite AeB (uso adulto)</t>
+  </si>
+  <si>
+    <t>Vacina influenza ID</t>
+  </si>
+  <si>
+    <t>Vacina rotavírus pentavalente</t>
+  </si>
+  <si>
+    <t>Vacina meningocócica B/C</t>
+  </si>
+  <si>
+    <t>Vacina HPV quadrivalente</t>
+  </si>
+  <si>
+    <t>Soro antibotulínico AB (bivalente)</t>
+  </si>
+  <si>
+    <t>Vacina sarampo</t>
+  </si>
+  <si>
+    <t>Vacina rubéola</t>
+  </si>
+  <si>
+    <t>Vacina gripe</t>
+  </si>
+  <si>
+    <t>Vacina quádrupla viral</t>
+  </si>
+  <si>
+    <t>Vacina meningo ACWY</t>
+  </si>
+  <si>
+    <t>Vacina cólera</t>
+  </si>
+  <si>
+    <t>Vacina herpes-zóster</t>
+  </si>
+  <si>
+    <t>Vacina influenza tetravalente</t>
+  </si>
+  <si>
+    <t>Vacina meningo B</t>
+  </si>
+  <si>
+    <t>Diluente para vacina BCG</t>
+  </si>
+  <si>
+    <t>Diluente para vacina raiva cultivo celulas vero</t>
+  </si>
+  <si>
+    <t>Diluente para vacina meningo C</t>
+  </si>
+  <si>
+    <t>Vacina dengue</t>
+  </si>
+  <si>
+    <t>Vacina hepatite A adulto</t>
+  </si>
+  <si>
+    <t>Vacina febre amarela fracionada</t>
+  </si>
+  <si>
+    <t>Vacina Covid-19 ASTRAZENECA/FIOCRUZ - COVISHIELD, recombinante</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 SINOVAC/BUTANTAN - CORONAVAC, inativada</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 PFIZER - COMIRNATY, RNAm</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 JANSSEN - Ad26.COV2.S, recombinante</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 ASTRAZENECA - ChAdOx1-S, recombinante</t>
+  </si>
+  <si>
+    <t>Diluente para vacina sarampo, caxumba, rubéola e varicela</t>
+  </si>
+  <si>
+    <t>Diluente para vacina raiva cultivo embrião de galinha</t>
+  </si>
+  <si>
+    <t>Vacina raiva cultivo celulas vero</t>
+  </si>
+  <si>
+    <t>Vacina HPV nonavalente</t>
+  </si>
+  <si>
+    <t>Diluente Covid-19</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 GAMALEYA - SPUTNIK V recombinante</t>
+  </si>
+  <si>
+    <t>Vacina Covid-19 COVID-19 BHARAT - COVAXIN inativada</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 MODERNA RNAm</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 SINOVAC - CORONAVAC inativada</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 PFIZER - COMIRNATY PEDIÁTRICA, RNAm</t>
+  </si>
+  <si>
+    <t>Vacina Varíola Bavarian Nordic</t>
+  </si>
+  <si>
+    <t>Vacina Herpes-Zoster, recombinante</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 PFIZER - COMIRNATY PEDIÁTRICA MENOR DE 5 ANOS, RNAm</t>
+  </si>
+  <si>
+    <t>Vacina COVID-19 PFIZER - COMIRNATY BIVALENTE, RNAm</t>
+  </si>
+  <si>
+    <t>brimunobiologico</t>
+  </si>
+  <si>
+    <t>Pharmacologic-Drug-Class</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil x SNOMED</t>
+  </si>
+  <si>
+    <t>BRIMUNOBIOLOGICO- 1.0 x VacinneCodesGPS</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>73152006</t>
+  </si>
+  <si>
+    <t>37146000</t>
+  </si>
+  <si>
+    <t>774618008</t>
+  </si>
+  <si>
+    <t>787859002</t>
+  </si>
+  <si>
+    <t>777725002</t>
+  </si>
+  <si>
+    <t>775641005</t>
+  </si>
+  <si>
+    <t>863911006</t>
+  </si>
+  <si>
+    <t>840599008</t>
+  </si>
+  <si>
+    <t>840563003</t>
+  </si>
+  <si>
+    <t>840549009</t>
+  </si>
+  <si>
+    <t>836500008</t>
+  </si>
+  <si>
+    <t>836498007</t>
+  </si>
+  <si>
+    <t>836495005</t>
+  </si>
+  <si>
+    <t>836403007</t>
+  </si>
+  <si>
+    <t>836402002</t>
+  </si>
+  <si>
+    <t>836401009</t>
+  </si>
+  <si>
+    <t>836398006</t>
+  </si>
+  <si>
+    <t>836397001</t>
+  </si>
+  <si>
+    <t>836393002</t>
+  </si>
+  <si>
+    <t>836390004</t>
+  </si>
+  <si>
+    <t>836389008</t>
+  </si>
+  <si>
+    <t>836388000</t>
+  </si>
+  <si>
+    <t>836387005</t>
+  </si>
+  <si>
+    <t>836385002</t>
+  </si>
+  <si>
+    <t>836384003</t>
+  </si>
+  <si>
+    <t>836383009</t>
+  </si>
+  <si>
+    <t>836382004</t>
+  </si>
+  <si>
+    <t>836381006</t>
+  </si>
+  <si>
+    <t>836380007</t>
+  </si>
+  <si>
+    <t>836379009</t>
+  </si>
+  <si>
+    <t>836378001</t>
+  </si>
+  <si>
+    <t>836377006</t>
+  </si>
+  <si>
+    <t>836375003</t>
+  </si>
+  <si>
+    <t>836374004</t>
+  </si>
+  <si>
+    <t>836369007</t>
+  </si>
+  <si>
+    <t>836368004</t>
+  </si>
+  <si>
+    <t>871921009</t>
+  </si>
+  <si>
+    <t>871918007</t>
+  </si>
+  <si>
+    <t>871908002</t>
+  </si>
+  <si>
+    <t>871895005</t>
+  </si>
+  <si>
+    <t>871889009</t>
+  </si>
+  <si>
+    <t>871887006</t>
+  </si>
+  <si>
+    <t>871878002</t>
+  </si>
+  <si>
+    <t>871876003</t>
+  </si>
+  <si>
+    <t>871875004</t>
+  </si>
+  <si>
+    <t>871873006</t>
+  </si>
+  <si>
+    <t>871871008</t>
+  </si>
+  <si>
+    <t>871866001</t>
+  </si>
+  <si>
+    <t>871839001</t>
+  </si>
+  <si>
+    <t>871837004</t>
+  </si>
+  <si>
+    <t>871831003</t>
+  </si>
+  <si>
+    <t>871826000</t>
+  </si>
+  <si>
+    <t>871806004</t>
+  </si>
+  <si>
+    <t>871804001</t>
+  </si>
+  <si>
+    <t>871803007</t>
+  </si>
+  <si>
+    <t>871772009</t>
+  </si>
+  <si>
+    <t>871768005</t>
+  </si>
+  <si>
+    <t>871765008</t>
+  </si>
+  <si>
+    <t>871759008</t>
+  </si>
+  <si>
+    <t>871740006</t>
+  </si>
+  <si>
+    <t>871738001</t>
+  </si>
+  <si>
+    <t>871737006</t>
+  </si>
+  <si>
+    <t>409568008</t>
+  </si>
+  <si>
+    <t>428601009</t>
+  </si>
+  <si>
+    <t>971000221109</t>
+  </si>
+  <si>
+    <t>601000221108</t>
+  </si>
+  <si>
+    <t>1011000221100</t>
+  </si>
+  <si>
+    <t>1001000221103</t>
+  </si>
+  <si>
+    <t>1101000221104</t>
+  </si>
+  <si>
+    <t>1081000221109</t>
+  </si>
+  <si>
+    <t>1052328007</t>
+  </si>
+  <si>
+    <t>1051000221104</t>
+  </si>
+  <si>
+    <t>1031000221108</t>
+  </si>
+  <si>
+    <t>1181000221105</t>
+  </si>
+  <si>
+    <t>1162643001</t>
+  </si>
+  <si>
+    <t>1157106007</t>
+  </si>
+  <si>
+    <t>1157024006</t>
+  </si>
+  <si>
+    <t>1156746003</t>
+  </si>
+  <si>
+    <t>1156265005</t>
+  </si>
+  <si>
+    <t>1156257007</t>
+  </si>
+  <si>
+    <t>1156256003</t>
+  </si>
+  <si>
+    <t>1145035007</t>
+  </si>
+  <si>
+    <t>1145034006</t>
+  </si>
+  <si>
+    <t>1145033000</t>
+  </si>
+  <si>
+    <t>1145032005</t>
+  </si>
+  <si>
+    <t>1145023008</t>
+  </si>
+  <si>
+    <t>1145022003</t>
+  </si>
+  <si>
+    <t>1145003007</t>
+  </si>
+  <si>
+    <t>1144998002</t>
+  </si>
+  <si>
+    <t>1144997007</t>
+  </si>
+  <si>
+    <t>1142182006</t>
+  </si>
+  <si>
+    <t>1142181004</t>
+  </si>
+  <si>
+    <t>1131000221109</t>
+  </si>
+  <si>
+    <t>28531000087107</t>
+  </si>
+  <si>
+    <t>127787002</t>
+  </si>
+  <si>
+    <t>127786006</t>
+  </si>
+  <si>
+    <t>1121000221106</t>
+  </si>
+  <si>
+    <t>1119350007</t>
+  </si>
+  <si>
+    <t>1119349007</t>
+  </si>
+  <si>
+    <t>1119305005</t>
+  </si>
+  <si>
+    <t>1119254000</t>
+  </si>
+  <si>
+    <t>12866006</t>
+  </si>
+  <si>
+    <t>293104008</t>
+  </si>
+  <si>
+    <t>29061000087103</t>
+  </si>
+  <si>
+    <t>1801000221105</t>
+  </si>
+  <si>
+    <t>1981000221108</t>
+  </si>
+  <si>
+    <t>346469000</t>
+  </si>
+  <si>
+    <t>346468008</t>
+  </si>
+  <si>
+    <t>346467003</t>
+  </si>
+  <si>
+    <t>346405008</t>
+  </si>
+  <si>
+    <t>346364006</t>
+  </si>
+  <si>
+    <t>346313005</t>
+  </si>
+  <si>
+    <t>34631000</t>
+  </si>
+  <si>
+    <t>33879002</t>
+  </si>
+  <si>
+    <t>16584000</t>
+  </si>
+  <si>
+    <t>243789007</t>
+  </si>
+  <si>
+    <t>15483003</t>
+  </si>
+  <si>
+    <t>314450000</t>
+  </si>
+  <si>
+    <t>314417000</t>
+  </si>
+  <si>
+    <t>2171000221104</t>
+  </si>
+  <si>
+    <t>2221000221107</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Clostridium tetani and Corynebacterium diphtheriae antigens (procedure)</t>
+  </si>
+  <si>
+    <t>Typhus vaccine (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only whole cell Bordetella pertussis and Clostridium tetani toxoid adsorbed and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani toxoid antigen adsorbed (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani toxoid adsorbed and Corynebacterium diphtheriae toxoid antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Clostridium tetani antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Borrelia burgdorferi antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Dengue virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Yersinia pestis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Haemophilus influenzae type b and Neisseria meningitidis serogroup C antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Mumps orthorubulavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Tick-borne encephalitis virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing live attenuated Mycobacterium bovis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Neisseria meningitidis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Streptococcus pneumoniae antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Coxiella burnetii antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Salmonella enterica subspecies enterica serovar Typhi antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Vaccinia virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rubella virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rotavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Yellow fever virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Bacillus anthracis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Vibrio cholerae antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Measles morbillivirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Corynebacterium diphtheriae antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Haemophilus influenzae type b antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human papillomavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Japanese encephalitis virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Hepatitis A virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Hepatitis B virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing bacteria antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Staphylococcus toxoid vaccine (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Rickettsia antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 and Measles morbillivirus and Mumps orthorubulavirus and Rubella virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Hepatitis B virus and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only acellular Bordetella pertussis and Corynebacterium diphtheriae and Hepatitis B virus and inactivated whole Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only acellular Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup A, C, W135 and Y antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup A and C antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup C antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani and Corynebacterium diphtheriae and Human poliovirus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Measles morbillivirus and Mumps orthorubulavirus and Rubella virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Clostridium tetani and Corynebacterium diphtheriae antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Haemophilus influenzae type b and Hepatitis B virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Hepatitis A virus and Salmonella enterica subspecies enterica serovar Typhi antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Hepatitis A and Hepatitis B virus antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza A virus subtype H1N1 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza virus antigen in nasal dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Measles morbillivirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only acellular Bordetella pertussis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Human poliovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Mumps orthorubulavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Mumps orthorubulavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Pentavalent botulinum toxoid vaccine (medicinal product)</t>
+  </si>
+  <si>
+    <t>Paratyphoid vaccine (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Salmonella enterica subspecies enterica serovar Typhi antigen in oral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Bordetella pertussis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Vibrio cholerae antigen in oral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Vibrio cholerae antigen in oral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Clostridium tetani toxoid antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Rotavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 4, 6B, 9V, 14, 18C, 19F, and 23F capsular polysaccharide antigens conjugated (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Human poliovirus serotypes 1 and 3 antigens in oral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human poliovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 recombinant spike protein antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing only recombinant non-replicating viral vector encoding severe acute respiratory syndrome coronavirus 2 spike protein (disorder)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine-induced prothrombotic immune thrombocytopenia (disorder)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory syndrome coronavirus 2 vaccine contraindicated (situation)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product against severe acute respiratory syndrome coronavirus 2 (procedure)</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product against severe acute respiratory syndrome coronavirus 2 (disorder)</t>
+  </si>
+  <si>
+    <t>Second dose of severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid vaccine contraindicated (situation)</t>
+  </si>
+  <si>
+    <t>Second dose of severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid vaccine declined (situation)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory syndrome coronavirus 2 antigen vaccine declined (situation)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid vaccine declined (situation)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory syndrome coronavirus 2 antigen vaccine contraindicated (situation)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid vaccine contraindicated (situation)</t>
+  </si>
+  <si>
+    <t>Hypersensitivity to vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (finding)</t>
+  </si>
+  <si>
+    <t>Administration of second dose of vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of first dose of vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (procedure)</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing only severe acute respiratory syndrome coronavirus 2 antigen (disorder)</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (disorder)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only inactivated whole Rabies lyssavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product against severe acute respiratory syndrome coronavirus 2 (medicinal product)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Haemophilus influenzae type b antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Clostridium tetani antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Yellow fever virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (procedure)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 3, 4, 5, 6A, 6B, 7F, 9V, 14, 18C, 19A, 19F, and 23F capsular polysaccharide antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Streptococcus pneumoniae antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product (disorder)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only recombinant non-replicating viral vector encoding severe acute respiratory syndrome coronavirus 2 spike protein (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae capsular polysaccharide antigen conjugated (medicinal product)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup B antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>House mite allergy vaccine (product)</t>
+  </si>
+  <si>
+    <t>House dust allergy vaccine (product)</t>
+  </si>
+  <si>
+    <t>Horse dander allergy vaccine (product)</t>
+  </si>
+  <si>
+    <t>Dog allergy vaccine (product)</t>
+  </si>
+  <si>
+    <t>Cat allergy vaccine (product)</t>
+  </si>
+  <si>
+    <t>Allergen extract vaccine (product)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Rabies lyssavirus antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine to produce active immunity (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Hepatitis B virus antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Hepatitis A virus antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Salmonella enterica subspecies enterica serovar Typhi antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of single dose of vaccine product containing only Neisseria meningitidis serogroup C antigen (procedure)</t>
+  </si>
+  <si>
+    <t>Administration of vaccine product containing only Neisseria meningitidis serogroup A and C antigens (procedure)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Salmonella enterica subspecies enterica serovar Typhi capsular polysaccharide unconjugated antigen in parenteral dose form (medicinal product form)</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Diversos</t>
+  </si>
+  <si>
+    <t>VacinneCodesGPS x BRIMUNOBIOLOGICO- 1.0</t>
+  </si>
+  <si>
+    <t>SNOMED x Ministério da Saúde do Brasil</t>
+  </si>
+  <si>
+    <t>sct</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>1..*</t>
   </si>
 </sst>
 </file>
@@ -179,14 +1207,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,8 +1240,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +1259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,34 +1326,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,141 +1665,2864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="14">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="14">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="14">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="14">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="14">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="14">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="14">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="14">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="14">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="14">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="14">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="14">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="14">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="14">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="14">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="14">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="14">
+        <v>27</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="14">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="14">
+        <v>29</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="14">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="14">
+        <v>31</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="14">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="14">
+        <v>33</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="14">
+        <v>34</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="14">
+        <v>35</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="14">
+        <v>36</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14">
+        <v>37</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="14">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="14">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="14">
+        <v>40</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="14">
+        <v>41</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="14">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="14">
+        <v>43</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="14">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="14">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="14">
+        <v>46</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="14">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="14">
+        <v>48</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="14">
+        <v>49</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="14">
+        <v>50</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="14">
+        <v>51</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="14">
+        <v>52</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="14">
+        <v>53</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="14">
+        <v>54</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="14">
+        <v>55</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="14">
+        <v>56</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="14">
+        <v>57</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="14">
+        <v>58</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="14">
+        <v>59</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="14">
+        <v>60</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="14">
+        <v>61</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="14">
+        <v>62</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="14">
+        <v>63</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="14">
+        <v>64</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="14">
+        <v>65</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="14">
+        <v>66</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="14">
+        <v>67</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="14">
+        <v>68</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="14">
+        <v>69</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="14">
+        <v>70</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="14">
+        <v>71</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="14">
+        <v>72</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="14">
+        <v>73</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="14">
+        <v>74</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="14">
+        <v>75</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="14">
+        <v>76</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="14">
+        <v>77</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="14">
+        <v>78</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="14">
+        <v>79</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="14">
+        <v>80</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="14">
+        <v>81</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="14">
+        <v>82</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="14">
+        <v>83</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="14">
+        <v>84</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="14">
+        <v>85</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="14">
+        <v>86</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="14">
+        <v>87</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="14">
+        <v>88</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="14">
+        <v>89</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="14">
+        <v>90</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="14">
+        <v>91</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="14">
+        <v>92</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="14">
+        <v>93</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="14">
+        <v>94</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="14">
+        <v>95</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="14">
+        <v>96</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="14">
+        <v>97</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="14">
+        <v>98</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="14">
+        <v>99</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="14">
+        <v>100</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="14">
+        <v>101</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="14">
+        <v>102</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="14">
+        <v>103</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
+  <autoFilter ref="A3:H3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L108:L1048576 J107:J1048576 L1:L106">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108:H1048576 L107">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N1:N1048576">
-      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Opções!$A$1:$G$1</xm:f>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H1048576</xm:sqref>
+          <xm:sqref>I108:I1048576 K1:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Opções!$A$1:$E$1</xm:f>
+            <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K1048576 M1:M1048576</xm:sqref>
+          <xm:sqref>G108:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -745,16 +4532,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="3" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="6" width="31.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
@@ -767,72 +4555,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>0</v>
@@ -841,8 +4629,2065 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I124"/>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A1:M1"/>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E07DA6-C84C-9340-850D-C644DAB277BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="760" windowWidth="26320" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="756" windowWidth="26316" windowHeight="15456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$L$107</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$L$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$L$137</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$G$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Monalisa</author>
   </authors>
   <commentList>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="382">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -1220,7 +1219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1396,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1440,6 +1439,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1476,37 +1499,28 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1783,112 +1797,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection sqref="A1:L107"/>
+    <sheetView topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="27.109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="D2" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>120</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -2036,7 +2050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
@@ -2074,7 +2088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>120</v>
       </c>
@@ -2112,7 +2126,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>120</v>
       </c>
@@ -2150,7 +2164,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>120</v>
       </c>
@@ -2188,7 +2202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -2226,7 +2240,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -2340,7 +2354,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>120</v>
       </c>
@@ -2378,7 +2392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>120</v>
       </c>
@@ -2416,7 +2430,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>120</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -2492,7 +2506,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>120</v>
       </c>
@@ -2530,7 +2544,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>120</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2606,7 +2620,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>120</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>120</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -2758,7 +2772,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -2796,7 +2810,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>120</v>
       </c>
@@ -2834,7 +2848,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>120</v>
       </c>
@@ -2872,7 +2886,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>120</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -2948,7 +2962,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>120</v>
       </c>
@@ -2986,7 +3000,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
@@ -3062,7 +3076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>120</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>120</v>
       </c>
@@ -3214,7 +3228,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>120</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="83.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>120</v>
       </c>
@@ -3290,7 +3304,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
@@ -3328,7 +3342,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
@@ -3366,7 +3380,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
@@ -3518,7 +3532,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -3556,7 +3570,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3594,7 +3608,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>120</v>
       </c>
@@ -3632,7 +3646,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>120</v>
       </c>
@@ -3670,7 +3684,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
@@ -3708,7 +3722,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>120</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>120</v>
       </c>
@@ -3784,7 +3798,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -3822,7 +3836,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>120</v>
       </c>
@@ -3860,7 +3874,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
@@ -3936,7 +3950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>120</v>
       </c>
@@ -3974,7 +3988,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
@@ -4088,7 +4102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
@@ -4126,7 +4140,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>120</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>120</v>
       </c>
@@ -4278,7 +4292,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>120</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
@@ -4354,7 +4368,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>120</v>
       </c>
@@ -4392,7 +4406,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>120</v>
       </c>
@@ -4430,7 +4444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>120</v>
       </c>
@@ -4468,7 +4482,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>120</v>
       </c>
@@ -4506,20 +4520,20 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="19">
+    <row r="73" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="27">
         <v>70</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="15" t="s">
+      <c r="D73" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -4544,12 +4558,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="16"/>
+    <row r="74" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="26"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="5" t="s">
         <v>368</v>
       </c>
@@ -4572,7 +4586,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>120</v>
       </c>
@@ -4648,7 +4662,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>120</v>
       </c>
@@ -4686,7 +4700,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>120</v>
       </c>
@@ -4724,7 +4738,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>120</v>
       </c>
@@ -4762,7 +4776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>120</v>
       </c>
@@ -4800,7 +4814,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>120</v>
       </c>
@@ -4838,7 +4852,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>120</v>
       </c>
@@ -4876,7 +4890,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>120</v>
       </c>
@@ -4914,7 +4928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>120</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>120</v>
       </c>
@@ -4990,7 +5004,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>120</v>
       </c>
@@ -5028,7 +5042,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>120</v>
       </c>
@@ -5066,7 +5080,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>120</v>
       </c>
@@ -5104,7 +5118,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>374</v>
       </c>
@@ -5142,7 +5156,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>120</v>
       </c>
@@ -5180,7 +5194,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>120</v>
       </c>
@@ -5200,10 +5214,10 @@
         <v>368</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>365</v>
@@ -5218,7 +5232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>120</v>
       </c>
@@ -5256,7 +5270,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>120</v>
       </c>
@@ -5294,7 +5308,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>120</v>
       </c>
@@ -5332,7 +5346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
@@ -5370,7 +5384,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>120</v>
       </c>
@@ -5408,7 +5422,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>120</v>
       </c>
@@ -5446,7 +5460,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>120</v>
       </c>
@@ -5484,7 +5498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>120</v>
       </c>
@@ -5522,7 +5536,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>120</v>
       </c>
@@ -5560,7 +5574,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>120</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>120</v>
       </c>
@@ -5636,7 +5650,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>120</v>
       </c>
@@ -5656,10 +5670,10 @@
         <v>368</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>365</v>
@@ -5674,7 +5688,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>120</v>
       </c>
@@ -5712,7 +5726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="56.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>120</v>
       </c>
@@ -5750,7 +5764,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>120</v>
       </c>
@@ -5770,10 +5784,10 @@
         <v>368</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>365</v>
@@ -5788,7 +5802,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="54.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>120</v>
       </c>
@@ -5808,10 +5822,10 @@
         <v>368</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>365</v>
@@ -5827,7 +5841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:L107"/>
   <mergeCells count="5">
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="A73:A74"/>
@@ -5836,10 +5850,10 @@
     <mergeCell ref="D73:D74"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L108:L1048576 J108:J1048576 L20 L16:L17 L1:L2 L3:L13 L22:L106" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L108:L1048576 J108:J1048576 L20 L16:L17 L1:L13 L22:L106">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108:H1048576 L107" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108:H1048576 L107">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5849,19 +5863,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>I108:I1048576 K108:K1048576 K1:K2 K3</xm:sqref>
+          <xm:sqref>I108:I1048576 K108:K1048576 K1:K3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>G108:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$F$1</xm:f>
           </x14:formula1>
@@ -5874,19 +5888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5894,7 +5908,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5902,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -5910,7 +5924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -5918,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -5926,7 +5940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -5941,62 +5955,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:K116"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="31.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6034,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>368</v>
       </c>
@@ -6072,7 +6086,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6104,7 +6118,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>368</v>
       </c>
@@ -6142,7 +6156,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>368</v>
       </c>
@@ -6180,7 +6194,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>368</v>
       </c>
@@ -6218,7 +6232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>368</v>
       </c>
@@ -6256,7 +6270,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>368</v>
       </c>
@@ -6294,7 +6308,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>368</v>
       </c>
@@ -6332,7 +6346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>368</v>
       </c>
@@ -6370,7 +6384,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>368</v>
       </c>
@@ -6408,7 +6422,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>368</v>
       </c>
@@ -6446,7 +6460,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="93.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>368</v>
       </c>
@@ -6484,7 +6498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="74.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>368</v>
       </c>
@@ -6522,7 +6536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>368</v>
       </c>
@@ -6560,7 +6574,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>368</v>
       </c>
@@ -6598,7 +6612,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="74.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>368</v>
       </c>
@@ -6636,7 +6650,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>368</v>
       </c>
@@ -6674,7 +6688,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>368</v>
       </c>
@@ -6712,7 +6726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>368</v>
       </c>
@@ -6750,7 +6764,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>368</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="83.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>368</v>
       </c>
@@ -6826,7 +6840,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>368</v>
       </c>
@@ -6864,7 +6878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>368</v>
       </c>
@@ -6902,7 +6916,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>368</v>
       </c>
@@ -6940,7 +6954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>368</v>
       </c>
@@ -6978,7 +6992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>368</v>
       </c>
@@ -7016,7 +7030,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>368</v>
       </c>
@@ -7054,7 +7068,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>368</v>
       </c>
@@ -7092,7 +7106,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>368</v>
       </c>
@@ -7130,413 +7144,433 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="D33" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="39">
+        <v>67</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="4">
+        <v>35</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="4">
+        <v>56</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="14">
-        <v>67</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="14">
-        <v>93</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="4">
-        <v>35</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="I43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L43" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="4">
-        <v>9</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="110.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>365</v>
@@ -7545,36 +7579,36 @@
         <v>122</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="4">
-        <v>56</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>73</v>
+        <v>369</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>122</v>
+        <v>369</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>365</v>
@@ -7586,10 +7620,10 @@
         <v>120</v>
       </c>
       <c r="G45" s="4">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>121</v>
@@ -7604,15 +7638,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>365</v>
@@ -7621,178 +7655,178 @@
         <v>122</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>369</v>
+        <v>120</v>
+      </c>
+      <c r="G46" s="4">
+        <v>58</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E47" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>120</v>
       </c>
       <c r="G47" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="4">
+        <v>57</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="4">
         <v>46</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47" s="5" t="s">
+      <c r="H49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L49" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="4">
-        <v>58</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" s="5" t="s">
+    <row r="50" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="4">
+        <v>74</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L50" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="4">
-        <v>47</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="4">
-        <v>57</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>365</v>
@@ -7800,19 +7834,19 @@
       <c r="E51" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="4">
-        <v>46</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="9" t="s">
+      <c r="F51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="10">
+        <v>13</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>122</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -7822,15 +7856,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>365</v>
@@ -7842,10 +7876,10 @@
         <v>120</v>
       </c>
       <c r="G52" s="4">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>121</v>
@@ -7860,15 +7894,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>365</v>
@@ -7876,16 +7910,16 @@
       <c r="E53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="10">
-        <v>13</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="F53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="4">
+        <v>39</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>121</v>
       </c>
       <c r="J53" s="5" t="s">
@@ -7898,15 +7932,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>365</v>
@@ -7915,51 +7949,51 @@
         <v>122</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="4">
+        <v>369</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="4">
+        <v>24</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="4">
-        <v>39</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>121</v>
@@ -7974,15 +8008,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="63.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>365</v>
@@ -7991,36 +8025,36 @@
         <v>122</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>369</v>
+        <v>120</v>
+      </c>
+      <c r="G56" s="4">
+        <v>25</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>365</v>
@@ -8029,687 +8063,687 @@
         <v>122</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="4">
-        <v>24</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>41</v>
+        <v>369</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="4">
+        <v>62</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="63.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="4">
+        <v>63</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="5">
+        <v>70</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L63" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="4">
+        <v>75</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="4">
-        <v>25</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="4">
+    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="4">
+        <v>45</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="4">
-        <v>63</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="5">
-        <v>70</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G75" s="4">
-        <v>75</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>121</v>
@@ -8721,71 +8755,71 @@
         <v>3</v>
       </c>
       <c r="L75" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="4">
+        <v>40</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="4">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E77" s="9" t="s">
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>120</v>
       </c>
       <c r="G77" s="4">
+        <v>28</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>121</v>
@@ -8797,18 +8831,18 @@
         <v>3</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>365</v>
@@ -8816,75 +8850,75 @@
       <c r="E78" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="4">
-        <v>40</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I78" s="5" t="s">
+      <c r="F78" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" s="10">
+        <v>22</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>121</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>122</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G79" s="4">
-        <v>28</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G79" s="14">
+        <v>33</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>365</v>
@@ -8892,924 +8926,904 @@
       <c r="E80" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G80" s="10">
-        <v>22</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>121</v>
+      <c r="F80" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G98" s="5">
+        <v>37</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" s="14">
+        <v>85</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="14">
-        <v>33</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K81" s="14" t="s">
+      <c r="L99" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="30"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="14">
+        <v>86</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="14" t="s">
+      <c r="L100" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="14">
-        <v>44</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J82" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K82" s="14" t="s">
+    <row r="101" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="30"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G101" s="14">
+        <v>87</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K101" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L82" s="14" t="s">
+      <c r="L101" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="14">
-        <v>64</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J83" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K83" s="14" t="s">
+    <row r="102" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G102" s="14">
+        <v>88</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="14" t="s">
+      <c r="L102" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" s="14">
-        <v>72</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K84" s="14" t="s">
+    <row r="103" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G103" s="14">
+        <v>89</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K103" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L84" s="14" t="s">
+      <c r="L103" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G85" s="14">
-        <v>77</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K85" s="14" t="s">
+    <row r="104" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G104" s="14">
+        <v>95</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L85" s="14" t="s">
+      <c r="L104" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L97" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G104" s="5">
-        <v>37</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>122</v>
-      </c>
+    <row r="105" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G105" s="14">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I105" s="14" t="s">
         <v>121</v>
@@ -9824,20 +9838,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+    <row r="106" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G106" s="14">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I106" s="14" t="s">
         <v>121</v>
@@ -9852,20 +9866,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+    <row r="107" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="30"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G107" s="14">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I107" s="14" t="s">
         <v>121</v>
@@ -9880,20 +9894,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+    <row r="108" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="30"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G108" s="14">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I108" s="14" t="s">
         <v>121</v>
@@ -9908,20 +9922,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
+    <row r="109" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="30"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G109" s="14">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I109" s="14" t="s">
         <v>121</v>
@@ -9936,20 +9950,20 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+    <row r="110" spans="1:12" ht="56.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G110" s="14">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I110" s="14" t="s">
         <v>121</v>
@@ -9964,373 +9978,433 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" s="14">
-        <v>96</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J111" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K111" s="14" t="s">
+    <row r="111" spans="1:12" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G113" s="10">
+        <v>14</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G115" s="10">
+        <v>14</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" s="4">
+        <v>59</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G121" s="4">
+        <v>26</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="L111" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G112" s="14">
-        <v>97</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J112" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G113" s="14">
-        <v>98</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J113" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G114" s="14">
-        <v>99</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K114" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G115" s="14">
-        <v>102</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K115" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L115" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="23"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G116" s="14">
-        <v>103</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J116" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K116" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L116" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L117" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L118" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G119" s="10">
-        <v>14</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G121" s="10">
-        <v>14</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>365</v>
@@ -10339,36 +10413,36 @@
         <v>122</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>369</v>
+        <v>120</v>
+      </c>
+      <c r="G122" s="4">
+        <v>78</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>365</v>
@@ -10377,36 +10451,36 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G123" s="4">
-        <v>59</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>76</v>
+        <v>369</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>365</v>
@@ -10436,15 +10510,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>365</v>
@@ -10474,15 +10548,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>365</v>
@@ -10512,15 +10586,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>365</v>
@@ -10529,36 +10603,36 @@
         <v>122</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G127" s="4">
-        <v>26</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>43</v>
+        <v>369</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>365</v>
@@ -10567,36 +10641,36 @@
         <v>122</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G128" s="4">
-        <v>78</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>94</v>
+        <v>369</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>365</v>
@@ -10626,15 +10700,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>365</v>
@@ -10664,15 +10738,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>365</v>
@@ -10702,15 +10776,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>365</v>
@@ -10740,15 +10814,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>365</v>
@@ -10778,15 +10852,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>365</v>
@@ -10816,15 +10890,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>365</v>
@@ -10854,15 +10928,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>365</v>
@@ -10892,15 +10966,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>365</v>
@@ -10930,270 +11004,32 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K138" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K140" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L140" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L141" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L142" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K143" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L143" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:L143" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="27">
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="C105:C116"/>
-    <mergeCell ref="D105:D116"/>
-    <mergeCell ref="E105:E116"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
+  <autoFilter ref="A3:L137"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L144:L148" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L138:L142">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L149:L1048576 L1:L143" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L143:L1048576 L1:L137">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11202,17 +11038,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K1:K3 K144:K1048576</xm:sqref>
+          <xm:sqref>K1:K3 K138:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>H144:H1048576 K4:K143</xm:sqref>
+          <xm:sqref>H138:H1048576 K4:K137</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11221,19 +11057,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -11241,7 +11077,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -11249,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11257,7 +11093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -11265,7 +11101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11273,7 +11109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -11287,19 +11123,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E46121-56E4-7E47-AC79-9D0764FB1F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="756" windowWidth="26316" windowHeight="15456" activeTab="2"/>
+    <workbookView xWindow="5460" yWindow="1060" windowWidth="25120" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
@@ -19,32 +20,43 @@
     <sheet name="Opções" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$A$3:$L$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brimunobiologicoxGPSvaccines!$K$1:$K$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GPSvaccinesxbrimunobiologico!$A$3:$L$137</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">brimunobiologicoxGPSvaccines!$G$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Monalisa</author>
   </authors>
   <commentList>
-    <comment ref="C77" authorId="0" shapeId="0">
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -53,12 +65,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Igual 56 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Igual 56 
 </t>
         </r>
       </text>
@@ -67,8 +88,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="392">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -1214,13 +1257,43 @@
   </si>
   <si>
     <t>SNOMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae and Haemophilus influenzae type b and Human poliovirus antigens (medicinal product)	sct</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 and Measles morbillivirus and Mumps orthorubulavirus and Rubella virus antigens (medicinal product)|</t>
+  </si>
+  <si>
+    <t>74626007</t>
+  </si>
+  <si>
+    <t>Drug diluent (product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1156183006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human alphaherpesvirus 3 recombinant surface glycoprotein E antigen (medicinal product)|</t>
+  </si>
+  <si>
+    <t>6 - EXISTE SNOMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,19 +1323,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1303,8 +1363,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1412,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1430,7 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1445,22 +1567,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1481,6 +1603,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,28 +1630,78 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1797,30 +1978,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="27.1640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>376</v>
       </c>
@@ -1835,14 +2017,14 @@
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>378</v>
       </c>
@@ -1857,14 +2039,14 @@
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +2065,7 @@
       <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1896,13 +2078,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -1912,191 +2094,206 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="L5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M5" s="48">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="46">
+        <v>4</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M6" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="48" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="46">
+        <v>6</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M8" s="48">
         <v>3</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>121</v>
@@ -2107,11 +2304,11 @@
       <c r="F9" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>369</v>
+      <c r="G9" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>369</v>
@@ -2120,21 +2317,24 @@
         <v>369</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>121</v>
@@ -2145,7 +2345,7 @@
       <c r="F10" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>369</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2163,16 +2363,19 @@
       <c r="L10" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>121</v>
@@ -2181,36 +2384,40 @@
         <v>122</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>121</v>
@@ -2222,10 +2429,10 @@
         <v>368</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>365</v>
@@ -2239,16 +2446,19 @@
       <c r="L12" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>121</v>
@@ -2257,36 +2467,39 @@
         <v>122</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>271</v>
+        <v>369</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>121</v>
@@ -2297,7 +2510,7 @@
       <c r="F14" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>369</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2315,54 +2528,60 @@
       <c r="L14" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="M14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="10">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>121</v>
@@ -2374,10 +2593,10 @@
         <v>368</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>365</v>
@@ -2391,284 +2610,308 @@
       <c r="L16" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="10">
-        <v>14</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="40">
+        <v>15</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="40">
+        <v>1</v>
+      </c>
+      <c r="M17" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="40">
+        <v>16</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="M18" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="M19" s="1">
         <v>6</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="4">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="10">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:13" s="42" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="40">
+        <v>18</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="M20" s="42">
         <v>3</v>
       </c>
-      <c r="L20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:13" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="43">
+        <v>19</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M21" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="54">
+        <v>20</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M22" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="4">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="4">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="4">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="4">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="10">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2678,147 +2921,160 @@
         <v>368</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="5" t="s">
         <v>122</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="54">
+        <v>23</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="10">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="M26" s="1">
+        <f>M19+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="4">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>121</v>
@@ -2829,16 +3085,16 @@
       <c r="F28" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="G28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -2847,92 +3103,101 @@
       <c r="L28" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="4">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="M28" s="1">
         <v>5</v>
       </c>
-      <c r="L29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:13" s="42" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="40">
+        <v>27</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="4">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B31" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>121</v>
@@ -2944,10 +3209,10 @@
         <v>368</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>365</v>
@@ -2961,16 +3226,19 @@
       <c r="L31" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="M31" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="256" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B32" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>121</v>
@@ -2982,10 +3250,10 @@
         <v>368</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>365</v>
@@ -2997,170 +3265,185 @@
         <v>3</v>
       </c>
       <c r="L32" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="46">
+        <v>31</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M33" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="46">
+        <v>32</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M34" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="4">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="4">
-        <v>31</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="4">
-        <v>32</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="4">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M36" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>121</v>
@@ -3172,10 +3455,10 @@
         <v>368</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>365</v>
@@ -3187,170 +3470,185 @@
         <v>3</v>
       </c>
       <c r="L37" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="56" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="54">
+        <v>36</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M38" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="10">
+        <v>37</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="4">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="M39" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="54">
+        <v>38</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M40" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="4">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="83.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="10">
-        <v>37</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="4">
-        <v>38</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="M41" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B42" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>121</v>
@@ -3361,34 +3659,37 @@
       <c r="F42" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K42" s="9" t="s">
+      <c r="G42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="M42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>121</v>
@@ -3400,10 +3701,10 @@
         <v>368</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>365</v>
@@ -3417,16 +3718,19 @@
       <c r="L43" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M43" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B44" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>121</v>
@@ -3437,72 +3741,78 @@
       <c r="F44" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>170</v>
+      <c r="G44" s="49">
+        <v>871887006</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L45" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="4">
-        <v>42</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="M45" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>121</v>
@@ -3513,566 +3823,596 @@
       <c r="F46" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J46" s="5" t="s">
+      <c r="G46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="4">
-        <v>44</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M47" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="E48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="4">
-        <v>46</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" s="9" t="s">
+      <c r="M49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="40">
+        <v>48</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="54">
+        <v>49</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="54">
+        <v>50</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="256" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="56" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="54">
+        <v>52</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="54">
+        <v>53</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="54">
+        <v>54</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M56" s="56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L58" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="4">
-        <v>47</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="M58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="I59" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L59" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="4">
-        <v>48</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="4">
-        <v>49</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="4">
-        <v>50</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="4">
-        <v>51</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="4">
-        <v>52</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="4">
-        <v>53</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="4">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="4">
-        <v>55</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="4">
-        <v>56</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K59" s="9" t="s">
+      <c r="M59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="4">
+        <v>58</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L60" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="4">
-        <v>57</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="M60" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>121</v>
@@ -4084,10 +4424,10 @@
         <v>368</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>365</v>
@@ -4101,16 +4441,19 @@
       <c r="L61" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="M61" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>121</v>
@@ -4122,10 +4465,10 @@
         <v>368</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>365</v>
@@ -4134,97 +4477,106 @@
         <v>122</v>
       </c>
       <c r="K62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M62" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="4">
+        <v>61</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="L63" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="4">
-        <v>60</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K63" s="5" t="s">
+      <c r="M63" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="4">
+        <v>62</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L64" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="4">
-        <v>61</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M64" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B65" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>121</v>
@@ -4253,16 +4605,19 @@
       <c r="L65" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M65" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>121</v>
@@ -4274,10 +4629,10 @@
         <v>368</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>365</v>
@@ -4291,16 +4646,19 @@
       <c r="L66" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M66" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>121</v>
@@ -4312,10 +4670,10 @@
         <v>368</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>365</v>
@@ -4329,16 +4687,19 @@
       <c r="L67" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M67" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B68" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>121</v>
@@ -4350,10 +4711,10 @@
         <v>368</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>365</v>
@@ -4362,59 +4723,65 @@
         <v>122</v>
       </c>
       <c r="K68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M68" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="4">
+        <v>67</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="4">
-        <v>66</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M69" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>121</v>
@@ -4443,107 +4810,106 @@
       <c r="L70" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="4">
-        <v>68</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="4">
+      <c r="M70" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A71" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="54">
         <v>69</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C71" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="D71" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J71" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M71" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="27">
+        <v>70</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>369</v>
+      <c r="G72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="27">
-        <v>70</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>122</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M72" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="5" t="s">
         <v>368</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>365</v>
@@ -4557,44 +4923,60 @@
       <c r="L73" s="5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="24"/>
+      <c r="M73" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="4">
+        <v>71</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="F74" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="M74" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>121</v>
@@ -4605,110 +4987,119 @@
       <c r="F75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J75" s="1" t="s">
+      <c r="G75" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>122</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="L75" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="M75" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="5">
+        <v>73</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H76" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="4">
+        <v>74</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L77" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="4">
-        <v>72</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="5">
-        <v>73</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M77" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B78" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>121</v>
@@ -4720,10 +5111,10 @@
         <v>368</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>365</v>
@@ -4737,320 +5128,348 @@
       <c r="L78" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="4">
-        <v>75</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K79" s="5" t="s">
+      <c r="M78" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A79" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="54">
+        <v>76</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H79" s="55" cm="1">
+        <f t="array" aca="1" ref="H79" ca="1">G79+79:79</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J79" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K79" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M79" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="4">
+        <v>77</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M80" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="4">
+        <v>78</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L79" s="5" t="s">
+      <c r="L81" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="4">
-        <v>76</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="4">
-        <v>77</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K81" s="5" t="s">
+      <c r="M81" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="4">
+        <v>79</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82" t="s">
+        <v>385</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="L82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M82" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="4">
+        <v>80</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H83" t="s">
+        <v>385</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M83" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="4">
+        <v>81</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84" t="s">
+        <v>385</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M84" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="4">
+        <v>82</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M85" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="4">
+        <v>83</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="4">
-        <v>78</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83" s="4">
-        <v>79</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="4">
-        <v>80</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="4">
-        <v>81</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="4">
-        <v>82</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M86" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B87" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>121</v>
@@ -5062,10 +5481,10 @@
         <v>368</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>365</v>
@@ -5077,18 +5496,21 @@
         <v>5</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="M87" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="B88" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>121</v>
@@ -5100,10 +5522,10 @@
         <v>368</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>365</v>
@@ -5115,18 +5537,21 @@
         <v>5</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="M88" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>374</v>
+        <v>120</v>
       </c>
       <c r="B89" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>121</v>
@@ -5155,16 +5580,19 @@
       <c r="L89" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M89" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B90" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>121</v>
@@ -5176,10 +5604,10 @@
         <v>368</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>365</v>
@@ -5193,16 +5621,19 @@
       <c r="L90" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="M90" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B91" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>121</v>
@@ -5214,10 +5645,10 @@
         <v>368</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>365</v>
@@ -5231,16 +5662,19 @@
       <c r="L91" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M91" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B92" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>121</v>
@@ -5269,16 +5703,19 @@
       <c r="L92" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M92" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B93" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>121</v>
@@ -5287,150 +5724,159 @@
         <v>122</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>337</v>
+        <v>384</v>
+      </c>
+      <c r="H93" t="s">
+        <v>385</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M93" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="4">
+        <v>91</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H94" t="s">
+        <v>385</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M94" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="51">
+        <v>92</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="G95" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="J95" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="K95" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="4">
+        <v>93</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L96" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="4">
-        <v>90</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="4">
-        <v>91</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B96" s="4">
-        <v>92</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M96" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B97" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>121</v>
@@ -5439,74 +5885,80 @@
         <v>122</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>273</v>
+        <v>384</v>
+      </c>
+      <c r="H97" t="s">
+        <v>385</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M97" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="4">
+        <v>95</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L98" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="4">
-        <v>94</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M98" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B99" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>121</v>
@@ -5535,16 +5987,19 @@
       <c r="L99" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M99" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B100" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>121</v>
@@ -5573,16 +6028,19 @@
       <c r="L100" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M100" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B101" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>121</v>
@@ -5611,16 +6069,19 @@
       <c r="L101" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M101" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B102" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>121</v>
@@ -5632,10 +6093,10 @@
         <v>368</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>365</v>
@@ -5649,130 +6110,142 @@
       <c r="L102" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="4">
-        <v>99</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="M102" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="59" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="57">
+        <v>100</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G103" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="H103" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="I103" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="J103" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="K103" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="M103" s="59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="56" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="54">
+        <v>101</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="H104" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="I104" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J104" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K104" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M104" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="4">
+        <v>102</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K103" s="5" t="s">
+      <c r="I105" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L103" s="5" t="s">
+      <c r="L105" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="4">
-        <v>100</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="56.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="4">
-        <v>101</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L105" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M105" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="54.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B106" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>121</v>
@@ -5801,59 +6274,24 @@
       <c r="L106" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" s="4">
-        <v>103</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>373</v>
+      <c r="M106" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L107"/>
+  <autoFilter ref="K1:K106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L108:L1048576 J108:J1048576 L20 L16:L17 L1:L13 L22:L106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L107:L1048576 J107:J1048576 L19 L15:L16 L21:L105 L1:L12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108:H1048576 L107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H107:H1048576 L106" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5863,23 +6301,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>I108:I1048576 K108:K1048576 K1:K3</xm:sqref>
+          <xm:sqref>I107:I1048576 K107:K1048576 K1:K3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G108:G1048576</xm:sqref>
+          <xm:sqref>G107:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$F$1</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K107</xm:sqref>
+          <xm:sqref>K4:K106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5888,64 +6326,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="61">
+        <f>3/99</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="13">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="61">
+        <f>B3/99</f>
+        <v>0.32323232323232326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="61">
+        <f>B5/99</f>
+        <v>0.40404040404040403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="13">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="61">
+        <f>B6/99</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="60">
+        <f>SUM(B2:B6)</f>
+        <v>99</v>
+      </c>
+      <c r="C7" s="61">
+        <f>SUM(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5955,62 +6475,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="31.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-    </row>
-    <row r="3" spans="1:12" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6048,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>368</v>
       </c>
@@ -6086,7 +6606,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6118,7 +6638,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>368</v>
       </c>
@@ -6156,7 +6676,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>368</v>
       </c>
@@ -6194,7 +6714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>368</v>
       </c>
@@ -6232,7 +6752,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>368</v>
       </c>
@@ -6270,7 +6790,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>368</v>
       </c>
@@ -6308,7 +6828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>368</v>
       </c>
@@ -6346,7 +6866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>368</v>
       </c>
@@ -6384,7 +6904,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>368</v>
       </c>
@@ -6422,7 +6942,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>368</v>
       </c>
@@ -6460,7 +6980,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="93.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>368</v>
       </c>
@@ -6498,7 +7018,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="74.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>368</v>
       </c>
@@ -6536,7 +7056,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>368</v>
       </c>
@@ -6574,7 +7094,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>368</v>
       </c>
@@ -6612,7 +7132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="74.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>368</v>
       </c>
@@ -6650,7 +7170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>368</v>
       </c>
@@ -6688,7 +7208,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>368</v>
       </c>
@@ -6726,7 +7246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>368</v>
       </c>
@@ -6764,7 +7284,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>368</v>
       </c>
@@ -6802,7 +7322,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="83.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>368</v>
       </c>
@@ -6840,7 +7360,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>368</v>
       </c>
@@ -6878,7 +7398,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>368</v>
       </c>
@@ -6916,7 +7436,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>368</v>
       </c>
@@ -6954,7 +7474,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>368</v>
       </c>
@@ -6992,7 +7512,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>368</v>
       </c>
@@ -7030,7 +7550,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>368</v>
       </c>
@@ -7068,7 +7588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>368</v>
       </c>
@@ -7106,7 +7626,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>368</v>
       </c>
@@ -7144,45 +7664,45 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:12" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="39">
+      <c r="D33" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="14">
         <v>67</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" s="39" t="s">
+      <c r="I33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>368</v>
       </c>
@@ -7220,7 +7740,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>368</v>
       </c>
@@ -7258,7 +7778,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>368</v>
       </c>
@@ -7296,7 +7816,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>368</v>
       </c>
@@ -7334,7 +7854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>368</v>
       </c>
@@ -7372,7 +7892,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>368</v>
       </c>
@@ -7410,7 +7930,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>368</v>
       </c>
@@ -7448,7 +7968,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>368</v>
       </c>
@@ -7486,7 +8006,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>368</v>
       </c>
@@ -7524,7 +8044,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>368</v>
       </c>
@@ -7562,7 +8082,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="110.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>368</v>
       </c>
@@ -7600,7 +8120,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>368</v>
       </c>
@@ -7638,7 +8158,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>368</v>
       </c>
@@ -7676,14 +8196,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="30" t="s">
         <v>287</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -7714,10 +8234,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="5" t="s">
@@ -7742,7 +8262,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>368</v>
       </c>
@@ -7780,7 +8300,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>368</v>
       </c>
@@ -7818,7 +8338,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>368</v>
       </c>
@@ -7856,7 +8376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>368</v>
       </c>
@@ -7894,7 +8414,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>368</v>
       </c>
@@ -7932,7 +8452,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>368</v>
       </c>
@@ -7970,7 +8490,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>368</v>
       </c>
@@ -8008,7 +8528,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="63.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>368</v>
       </c>
@@ -8046,7 +8566,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>368</v>
       </c>
@@ -8084,7 +8604,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>368</v>
       </c>
@@ -8122,14 +8642,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="30" t="s">
         <v>298</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -8160,10 +8680,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="63.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="5" t="s">
@@ -8188,7 +8708,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>368</v>
       </c>
@@ -8226,7 +8746,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>368</v>
       </c>
@@ -8264,7 +8784,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>368</v>
       </c>
@@ -8302,7 +8822,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>368</v>
       </c>
@@ -8340,7 +8860,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>368</v>
       </c>
@@ -8378,7 +8898,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>368</v>
       </c>
@@ -8416,7 +8936,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>368</v>
       </c>
@@ -8454,7 +8974,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>368</v>
       </c>
@@ -8492,7 +9012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>368</v>
       </c>
@@ -8530,7 +9050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>368</v>
       </c>
@@ -8568,7 +9088,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>368</v>
       </c>
@@ -8606,7 +9126,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>368</v>
       </c>
@@ -8644,7 +9164,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>368</v>
       </c>
@@ -8682,7 +9202,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>368</v>
       </c>
@@ -8720,7 +9240,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>368</v>
       </c>
@@ -8758,7 +9278,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>368</v>
       </c>
@@ -8796,7 +9316,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>368</v>
       </c>
@@ -8834,7 +9354,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>368</v>
       </c>
@@ -8872,7 +9392,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>368</v>
       </c>
@@ -8910,7 +9430,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>368</v>
       </c>
@@ -8948,7 +9468,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>368</v>
       </c>
@@ -8986,7 +9506,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>368</v>
       </c>
@@ -9024,7 +9544,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>368</v>
       </c>
@@ -9062,7 +9582,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>368</v>
       </c>
@@ -9100,7 +9620,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>368</v>
       </c>
@@ -9138,7 +9658,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>368</v>
       </c>
@@ -9176,7 +9696,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>368</v>
       </c>
@@ -9214,7 +9734,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>368</v>
       </c>
@@ -9252,7 +9772,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>368</v>
       </c>
@@ -9290,7 +9810,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>368</v>
       </c>
@@ -9328,7 +9848,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>368</v>
       </c>
@@ -9366,7 +9886,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>368</v>
       </c>
@@ -9404,7 +9924,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>368</v>
       </c>
@@ -9442,7 +9962,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>368</v>
       </c>
@@ -9480,7 +10000,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>368</v>
       </c>
@@ -9518,7 +10038,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>368</v>
       </c>
@@ -9556,7 +10076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>368</v>
       </c>
@@ -9594,7 +10114,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>368</v>
       </c>
@@ -9632,20 +10152,20 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B99" s="32" t="s">
+    <row r="99" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" s="29" t="s">
+      <c r="D99" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" s="32" t="s">
         <v>122</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -9670,12 +10190,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="30"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
+    <row r="100" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="14" t="s">
         <v>120</v>
       </c>
@@ -9698,12 +10218,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
+    <row r="101" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="14" t="s">
         <v>120</v>
       </c>
@@ -9726,12 +10246,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="30"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
+    <row r="102" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
       <c r="F102" s="14" t="s">
         <v>120</v>
       </c>
@@ -9754,12 +10274,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="30"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
+    <row r="103" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
       <c r="F103" s="14" t="s">
         <v>120</v>
       </c>
@@ -9782,12 +10302,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="30"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
+    <row r="104" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
       <c r="F104" s="14" t="s">
         <v>120</v>
       </c>
@@ -9810,12 +10330,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="30"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+    <row r="105" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
       <c r="F105" s="14" t="s">
         <v>120</v>
       </c>
@@ -9838,12 +10358,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="30"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+    <row r="106" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
       <c r="F106" s="14" t="s">
         <v>120</v>
       </c>
@@ -9866,12 +10386,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="30"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
+    <row r="107" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="14" t="s">
         <v>120</v>
       </c>
@@ -9894,12 +10414,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="30"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
+    <row r="108" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
       <c r="F108" s="14" t="s">
         <v>120</v>
       </c>
@@ -9922,12 +10442,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="30"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
+    <row r="109" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
       <c r="F109" s="14" t="s">
         <v>120</v>
       </c>
@@ -9950,12 +10470,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="56.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
+    <row r="110" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="34"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="14" t="s">
         <v>120</v>
       </c>
@@ -9978,7 +10498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>368</v>
       </c>
@@ -10016,7 +10536,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>368</v>
       </c>
@@ -10054,7 +10574,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>368</v>
       </c>
@@ -10092,7 +10612,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>368</v>
       </c>
@@ -10130,7 +10650,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>368</v>
       </c>
@@ -10168,7 +10688,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>368</v>
       </c>
@@ -10206,7 +10726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>368</v>
       </c>
@@ -10244,7 +10764,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>368</v>
       </c>
@@ -10282,7 +10802,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>368</v>
       </c>
@@ -10320,7 +10840,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>368</v>
       </c>
@@ -10358,7 +10878,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>368</v>
       </c>
@@ -10396,7 +10916,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>368</v>
       </c>
@@ -10434,7 +10954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>368</v>
       </c>
@@ -10472,7 +10992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>368</v>
       </c>
@@ -10510,7 +11030,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>368</v>
       </c>
@@ -10548,7 +11068,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>368</v>
       </c>
@@ -10586,7 +11106,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>368</v>
       </c>
@@ -10624,7 +11144,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>368</v>
       </c>
@@ -10662,7 +11182,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>368</v>
       </c>
@@ -10700,7 +11220,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>368</v>
       </c>
@@ -10738,7 +11258,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>368</v>
       </c>
@@ -10776,7 +11296,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>368</v>
       </c>
@@ -10814,7 +11334,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>368</v>
       </c>
@@ -10852,7 +11372,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>368</v>
       </c>
@@ -10890,7 +11410,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>368</v>
       </c>
@@ -10928,7 +11448,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>368</v>
       </c>
@@ -10966,7 +11486,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>368</v>
       </c>
@@ -11005,8 +11525,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L137"/>
+  <autoFilter ref="A3:L137" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A47:A48"/>
@@ -11014,22 +11544,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="E99:E110"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L138:L142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L138:L142" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L143:L1048576 L1:L137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L143:L1048576 L1:L137" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11038,13 +11558,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K3 K138:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
@@ -11057,19 +11577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -11077,7 +11597,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -11085,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11093,7 +11613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -11101,7 +11621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11109,7 +11629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -11123,19 +11643,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11153,6 +11671,9 @@
       </c>
       <c r="F1" t="s">
         <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E46121-56E4-7E47-AC79-9D0764FB1F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C4EA39-1B48-8F45-A2AF-B185D162F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1060" windowWidth="25120" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="1060" windowWidth="25120" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brimunobiologicoxGPSvaccines" sheetId="1" r:id="rId1"/>
@@ -1585,51 +1585,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1687,17 +1642,62 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1992,11 +1992,11 @@
     <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
     <col min="12" max="12" width="27.1640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="1"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="38"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="38"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -2065,7 +2065,7 @@
       <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2121,85 +2121,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="46">
+    <row r="5" spans="1:13" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K5" s="46" t="s">
+      <c r="D5" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M5" s="48">
+      <c r="L5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M5" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="46">
+    <row r="6" spans="1:13" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K6" s="46" t="s">
+      <c r="D6" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M6" s="48">
+      <c r="L6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M6" s="33">
         <v>2</v>
       </c>
     </row>
@@ -2244,44 +2244,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="48" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="46">
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="46" t="s">
+      <c r="D8" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M8" s="48">
+      <c r="L8" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M8" s="33">
         <v>3</v>
       </c>
     </row>
@@ -2614,85 +2614,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="40">
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="25">
         <v>15</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="K17" s="40" t="s">
+      <c r="D17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="25">
         <v>1</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="40">
+    <row r="18" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="25">
         <v>16</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="K18" s="40" t="s">
+      <c r="D18" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="M18" s="42">
+      <c r="L18" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M18" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2737,126 +2737,126 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="42" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="40">
+    <row r="20" spans="1:13" s="27" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="25">
         <v>18</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="K20" s="40" t="s">
+      <c r="D20" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="M20" s="42">
+      <c r="L20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M20" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="43">
+    <row r="21" spans="1:13" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="28">
         <v>19</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="G21" s="44" t="s">
+      <c r="D21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="I21" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="K21" s="43" t="s">
+      <c r="I21" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="M21" s="45">
+      <c r="L21" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="M21" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="54">
+    <row r="22" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="39">
         <v>20</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="54" t="s">
+      <c r="D22" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M22" s="56">
+      <c r="L22" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M22" s="41">
         <v>5</v>
       </c>
     </row>
@@ -2942,44 +2942,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="54">
+    <row r="25" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="39">
         <v>23</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J25" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="54" t="s">
+      <c r="D25" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M25" s="56">
+      <c r="L25" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" s="41">
         <v>6</v>
       </c>
     </row>
@@ -3107,44 +3107,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="42" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="40">
+    <row r="29" spans="1:13" s="27" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="25">
         <v>27</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="K29" s="40" t="s">
+      <c r="D29" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="42">
+      <c r="L29" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="27">
         <v>7</v>
       </c>
     </row>
@@ -3271,85 +3271,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="46">
+    <row r="33" spans="1:13" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="31">
         <v>31</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K33" s="46" t="s">
+      <c r="D33" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M33" s="48">
+      <c r="L33" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M33" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="48" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="46">
+    <row r="34" spans="1:13" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="31">
         <v>32</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I34" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="46" t="s">
+      <c r="D34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M34" s="48">
+      <c r="L34" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M34" s="33">
         <v>8</v>
       </c>
     </row>
@@ -3476,44 +3476,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="56" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="54">
+    <row r="38" spans="1:13" s="41" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="39">
         <v>36</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J38" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K38" s="54" t="s">
+      <c r="D38" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M38" s="56">
+      <c r="L38" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M38" s="41">
         <v>8</v>
       </c>
     </row>
@@ -3558,44 +3558,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="54">
+    <row r="40" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="39">
         <v>38</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K40" s="54" t="s">
+      <c r="D40" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M40" s="56">
+      <c r="L40" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M40" s="41">
         <v>9</v>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       <c r="F44" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="34">
         <v>871887006</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -3968,117 +3968,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="42" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="40">
+    <row r="50" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="25">
         <v>48</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="K50" s="40" t="s">
+      <c r="D50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="40" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="54">
+      <c r="L50" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="39">
         <v>49</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K51" s="54" t="s">
+      <c r="D51" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="54" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="54">
+      <c r="L51" s="39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="39">
         <v>50</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H52" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J52" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K52" s="54" t="s">
+      <c r="D52" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="54" t="s">
+      <c r="L52" s="39" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4123,120 +4123,120 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="56" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="54">
+    <row r="54" spans="1:13" s="41" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="39">
         <v>52</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H54" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I54" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K54" s="54" t="s">
+      <c r="D54" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="54" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="54">
+      <c r="L54" s="39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="39">
         <v>53</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J55" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K55" s="54" t="s">
+      <c r="D55" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K55" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="54" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="54">
+      <c r="L55" s="39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="39">
         <v>54</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J56" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K56" s="54" t="s">
+      <c r="D56" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L56" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M56" s="56" t="s">
+      <c r="L56" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M56" s="41" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4814,61 +4814,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="54">
+    <row r="71" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A71" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="39">
         <v>69</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G71" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H71" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="I71" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J71" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K71" s="54" t="s">
+      <c r="D71" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J71" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K71" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L71" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M71" s="56">
+      <c r="L71" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M71" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="27">
+      <c r="A72" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="51">
         <v>70</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" s="23" t="s">
+      <c r="D72" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="47" t="s">
         <v>122</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -4897,11 +4897,11 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="24"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="5" t="s">
         <v>368</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="G76" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H76" s="50" t="s">
+      <c r="H76" s="35" t="s">
         <v>383</v>
       </c>
       <c r="I76" s="5" t="s">
@@ -5132,45 +5132,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="56" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="54">
+    <row r="79" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="39">
         <v>76</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G79" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="H79" s="55" cm="1">
+      <c r="D79" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H79" s="40" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">G79+79:79</f>
         <v>0</v>
       </c>
-      <c r="I79" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J79" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K79" s="54" t="s">
+      <c r="I79" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K79" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M79" s="56">
+      <c r="L79" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M79" s="41">
         <v>11</v>
       </c>
     </row>
@@ -5789,41 +5789,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="51">
+    <row r="95" spans="1:13" s="38" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="36">
         <v>92</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="G95" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="H95" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="I95" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="J95" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="K95" s="51" t="s">
+      <c r="D95" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="K95" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L95" s="51" t="s">
+      <c r="L95" s="36" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6114,85 +6114,85 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="59" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="57">
+    <row r="103" spans="1:13" s="44" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="42">
         <v>100</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C103" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="G103" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="I103" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="J103" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="K103" s="57" t="s">
+      <c r="D103" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G103" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="I103" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="J103" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K103" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L103" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="M103" s="59">
+      <c r="L103" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="M103" s="44">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="56" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="54">
+    <row r="104" spans="1:13" s="41" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="39">
         <v>101</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F104" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G104" s="55" t="s">
+      <c r="D104" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="H104" s="54" t="s">
+      <c r="H104" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="I104" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J104" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K104" s="54" t="s">
+      <c r="I104" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J104" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K104" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L104" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="M104" s="56">
+      <c r="L104" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="M104" s="41">
         <v>12</v>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6356,7 +6356,7 @@
       <c r="B2" s="13">
         <v>3</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="46">
         <f>3/99</f>
         <v>3.0303030303030304E-2</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="B3" s="13">
         <v>32</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="46">
         <f>B3/99</f>
         <v>0.32323232323232326</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="46">
         <v>0</v>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       <c r="B5" s="13">
         <v>40</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="46">
         <f>B5/99</f>
         <v>0.40404040404040403</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="B6" s="13">
         <v>24</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="46">
         <f>B6/99</f>
         <v>0.24242424242424243</v>
       </c>
@@ -6412,14 +6412,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="45">
         <f>SUM(B2:B6)</f>
         <v>99</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="46">
         <f>SUM(C2:C6)</f>
         <v>1</v>
       </c>
@@ -6499,36 +6499,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -8197,19 +8197,19 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="E47" s="25" t="s">
+      <c r="D47" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47" s="49" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -8235,11 +8235,11 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="5" t="s">
         <v>120</v>
       </c>
@@ -8643,19 +8643,19 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E59" s="49" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -8681,11 +8681,11 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="5" t="s">
         <v>120</v>
       </c>
@@ -10153,19 +10153,19 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="B99" s="35" t="s">
+      <c r="A99" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="D99" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" s="32" t="s">
+      <c r="D99" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" s="53" t="s">
         <v>122</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -10191,11 +10191,11 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
       <c r="F100" s="14" t="s">
         <v>120</v>
       </c>
@@ -10219,11 +10219,11 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="14" t="s">
         <v>120</v>
       </c>
@@ -10247,11 +10247,11 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
       <c r="F102" s="14" t="s">
         <v>120</v>
       </c>
@@ -10275,11 +10275,11 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="33"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="14" t="s">
         <v>120</v>
       </c>
@@ -10303,11 +10303,11 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="14" t="s">
         <v>120</v>
       </c>
@@ -10331,11 +10331,11 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
       <c r="F105" s="14" t="s">
         <v>120</v>
       </c>
@@ -10359,11 +10359,11 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="14" t="s">
         <v>120</v>
       </c>
@@ -10387,11 +10387,11 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
       <c r="F107" s="14" t="s">
         <v>120</v>
       </c>
@@ -10415,11 +10415,11 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
       <c r="F108" s="14" t="s">
         <v>120</v>
       </c>
@@ -10443,11 +10443,11 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
       <c r="F109" s="14" t="s">
         <v>120</v>
       </c>
@@ -10471,11 +10471,11 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
       <c r="F110" s="14" t="s">
         <v>120</v>
       </c>
@@ -11527,16 +11527,6 @@
   </sheetData>
   <autoFilter ref="A3:L137" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="E99:E110"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A47:A48"/>
@@ -11544,6 +11534,16 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L138:L142" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brimunobiologicoxGPSvaccines_GPSvaccinesxbrimunobiologico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C4EA39-1B48-8F45-A2AF-B185D162F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BD4A6-97DC-FA4D-9BDF-2BCB4034101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1060" windowWidth="25120" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,6 +1671,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,15 +1697,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1979,10 +1979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2025,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="30.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>378</v>
       </c>
@@ -2046,7 +2047,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="43.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>120</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>120</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>120</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>120</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="27" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>120</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>120</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="27" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="27" customFormat="1" ht="28.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>120</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="30" customFormat="1" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>120</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>120</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>120</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>120</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="27" customFormat="1" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="27" customFormat="1" ht="73.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="38.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>120</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="256" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>120</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>120</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>120</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="41" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="41" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>120</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="83.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>120</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="73.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>120</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="27" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="27" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>120</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>120</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>120</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="256" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>120</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="41" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="41" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
         <v>120</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>120</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>120</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>120</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>120</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>120</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>120</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>120</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>120</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>120</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="49" t="s">
         <v>120</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="50"/>
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
@@ -4927,7 +4928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>120</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="49.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>120</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>120</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>120</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="41" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="41" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>120</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>120</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>120</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>120</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>120</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>120</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>120</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>120</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>120</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>374</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>120</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>120</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="43.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>120</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>120</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>120</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>120</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="38" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="38" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
         <v>120</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>120</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>120</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>120</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="43.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>120</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>120</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>120</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>120</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="41" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="41" customFormat="1" ht="56.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
         <v>120</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>120</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="54.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="54.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>120</v>
       </c>
@@ -6279,7 +6280,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="K1:K106" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="5 - Nenhum mapeamento é possível. Não foi encontrado no alvo um conceito com algum grau de equivalência."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="A72:A73"/>
@@ -6499,36 +6506,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -8200,10 +8207,10 @@
       <c r="A47" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="54" t="s">
         <v>287</v>
       </c>
       <c r="D47" s="49" t="s">
@@ -8236,8 +8243,8 @@
     </row>
     <row r="48" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
       <c r="F48" s="5" t="s">
@@ -8646,10 +8653,10 @@
       <c r="A59" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="54" t="s">
         <v>298</v>
       </c>
       <c r="D59" s="49" t="s">
@@ -8682,8 +8689,8 @@
     </row>
     <row r="60" spans="1:12" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="5" t="s">
@@ -10153,19 +10160,19 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="B99" s="56" t="s">
+      <c r="A99" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="D99" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" s="53" t="s">
+      <c r="D99" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" s="56" t="s">
         <v>122</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -10191,11 +10198,11 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
       <c r="F100" s="14" t="s">
         <v>120</v>
       </c>
@@ -10219,11 +10226,11 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
       <c r="F101" s="14" t="s">
         <v>120</v>
       </c>
@@ -10247,11 +10254,11 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
       <c r="F102" s="14" t="s">
         <v>120</v>
       </c>
@@ -10275,11 +10282,11 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
       <c r="F103" s="14" t="s">
         <v>120</v>
       </c>
@@ -10303,11 +10310,11 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
       <c r="F104" s="14" t="s">
         <v>120</v>
       </c>
@@ -10331,11 +10338,11 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="14" t="s">
         <v>120</v>
       </c>
@@ -10359,11 +10366,11 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
       <c r="F106" s="14" t="s">
         <v>120</v>
       </c>
@@ -10387,11 +10394,11 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
       <c r="F107" s="14" t="s">
         <v>120</v>
       </c>
@@ -10415,11 +10422,11 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
       <c r="F108" s="14" t="s">
         <v>120</v>
       </c>
@@ -10443,11 +10450,11 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="54"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="57"/>
       <c r="F109" s="14" t="s">
         <v>120</v>
       </c>
@@ -10471,11 +10478,11 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="55"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="14" t="s">
         <v>120</v>
       </c>
@@ -11527,6 +11534,16 @@
   </sheetData>
   <autoFilter ref="A3:L137" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A47:A48"/>
@@ -11534,16 +11551,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="E99:E110"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L138:L142" xr:uid="{00000000-0002-0000-0200-000000000000}">
